--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.02745528780663676</v>
+        <v>-0.03622362435067662</v>
       </c>
       <c r="D2">
-        <v>0.9780998643227836</v>
+        <v>0.9714307255777141</v>
       </c>
       <c r="E2">
         <v>0.5493262399445303</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.000340028566493</v>
+        <v>1.089223708455519</v>
       </c>
       <c r="D3">
-        <v>0.3172901254210569</v>
+        <v>0.287843262960958</v>
       </c>
       <c r="E3">
         <v>0.5493262399445303</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7940617948284936</v>
+        <v>0.6965043292860141</v>
       </c>
       <c r="D4">
-        <v>0.4272716700968293</v>
+        <v>0.4934071022591615</v>
       </c>
       <c r="E4">
         <v>0.5493262399445303</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.08958552990446417</v>
+        <v>0.08652872502303947</v>
       </c>
       <c r="D5">
-        <v>0.9286272683591186</v>
+        <v>0.9318288416960669</v>
       </c>
       <c r="E5">
         <v>0.5493262399445303</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.9502485176527418</v>
+        <v>0.8463249792047624</v>
       </c>
       <c r="D6">
-        <v>0.3421227510819689</v>
+        <v>0.4064834492831513</v>
       </c>
       <c r="E6">
         <v>0.5497807243274321</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.7022577016042142</v>
+        <v>0.6076202549619911</v>
       </c>
       <c r="D7">
-        <v>0.4826158076396045</v>
+        <v>0.5496606345910346</v>
       </c>
       <c r="E7">
         <v>0.5497807243274321</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.1085904294152594</v>
+        <v>0.09303577641890622</v>
       </c>
       <c r="D8">
-        <v>0.9135403274279135</v>
+        <v>0.9267171998618307</v>
       </c>
       <c r="E8">
         <v>0.5497807243274321</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.1318265451016939</v>
+        <v>-0.1283304979230291</v>
       </c>
       <c r="D9">
-        <v>0.8951372844145058</v>
+        <v>0.8990533407996708</v>
       </c>
       <c r="E9">
         <v>0.5337993954284913</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.9504469964576867</v>
+        <v>-0.8272235079504265</v>
       </c>
       <c r="D10">
-        <v>0.3420219635996404</v>
+        <v>0.4169932213994252</v>
       </c>
       <c r="E10">
         <v>0.5337993954284913</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.7467885154387869</v>
+        <v>-0.580999509617843</v>
       </c>
       <c r="D11">
-        <v>0.4552957867475014</v>
+        <v>0.5671458951730961</v>
       </c>
       <c r="E11">
         <v>0.5360468335827784</v>
